--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_73.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_73.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,694 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07480106100795755</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['A', 'E', 'A:maj6']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(66.98, 83.84)]</t>
+          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(120.66, 122.74)]</t>
+          <t>[('0:00:04.511043', '0:00:10.664331')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:01:05.020000', '0:01:08.080000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D']]</t>
-        </is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_266</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.119815668202765</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['D', 'D/5', 'D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(124.702789, 130.612267)]</t>
+          <t>[['A', 'A', 'A/b7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(46.56, 49.08)]</t>
+          <t>[('0:01:30.564195', '0:01:33.106780')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+          <t>[('0:00:36.173061', '0:00:41.861950')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:00.220000', '0:00:08.880000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:48.460000', '0:01:01.580000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[('0:01:21.100000', '0:01:27.580000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(72.52, 90.98)]</t>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.3, 4.8)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(13.52, 25.4)]</t>
+          <t>[('0:00:02.640000', '0:00:19.060000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:09.840000', '0:01:21.680000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(6.74, 21.54)]</t>
+          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(5.78, 21.0)]</t>
+          <t>[('0:00:14.160000', '0:00:28.960000'), ('0:00:56.780000', '0:01:05.580000'), ('0:00:01.920000', '0:00:08.320000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:34.940000', '0:00:36.860000'), ('0:00:34.660000', '0:00:36.260000'), ('0:00:08.260000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86)]</t>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4357142857142857</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(17.34, 24.4)]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>[('0:00:16.341609', '0:00:23.354036')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74), (30.02, 32.12)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (65.9, 72.44)]</t>
+          <t>[('0:01:14.800000', '0:01:21.060000'), ('0:00:25.480000', '0:00:32.760000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:04.860000', '0:00:07.560000'), ('0:00:02.360000', '0:00:05.680000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4539473684210527</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['B', 'E', 'A'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.38, 21.84)]</t>
+          <t>[['D', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.7, 21.42)]</t>
+          <t>[('0:00:46.016712', '0:00:58.392947'), ('0:00:06.357029', '0:00:23.632675')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:11.337709', '0:00:19.847823'), ('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1187888198757764</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.014823, 6.126439)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(44.82, 47.28)]</t>
+          <t>[('0:00:07.140000', '0:01:47.600000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:04.840000', '0:01:33.920000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(11.5, 28.96)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(3.32, 8.68)]</t>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(4.76, 118.78)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(5.36, 110.76)]</t>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(23.04, 32.8)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(51.62, 63.9)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
